--- a/Aeropuertos.xlsx
+++ b/Aeropuertos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\visual_code_proyectos\flusk\complejidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F65647E-E3FD-4C20-AB5F-B2D00F98FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3342E2-6650-44B5-9FB6-B77346C3EE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="405" windowWidth="18540" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aeropuertos" sheetId="2" r:id="rId1"/>
@@ -11554,8 +11554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6599BA7C-CE1F-41A2-8A08-F4A563AB767E}">
   <dimension ref="A1:G1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="80" workbookViewId="0">
-      <selection activeCell="L383" sqref="L383"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A51" sqref="A1:G1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aeropuertos.xlsx
+++ b/Aeropuertos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\visual_code_proyectos\flusk\complejidad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\visual_code_proyectos\flusk\complejidad-algor-tmica-grafos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3342E2-6650-44B5-9FB6-B77346C3EE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF941E5-5941-4DCB-AC10-8FAEF03DB34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="405" windowWidth="18540" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aeropuertos" sheetId="2" r:id="rId1"/>
@@ -11554,8 +11554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6599BA7C-CE1F-41A2-8A08-F4A563AB767E}">
   <dimension ref="A1:G1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A51" sqref="A1:G1501"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
